--- a/Test_cases.xlsx
+++ b/Test_cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\3y s1\ITPM\assigment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFB9BC2-56B5-4BD7-AF07-07164E33D3CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3170550-ACD4-4E50-99EC-D29321DA2906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13776" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name=" Test cases" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="634">
   <si>
     <t>TC ID</t>
   </si>
@@ -8940,6 +8940,115 @@
   </si>
   <si>
     <t>මට කිරි ml 250ක් අරන් එන්න පුලුවන්ද?</t>
+  </si>
+  <si>
+    <t>Suggestion popup obstructs text editing when editing long Singlish input</t>
+  </si>
+  <si>
+    <t>When editing or moving the cursor within a long Singlish text, the suggestion popup should not block the text area or interfere with cursor placement and text editing.</t>
+  </si>
+  <si>
+    <t>While editing text in the middle of a long Singlish input, the suggestion popup appears near the cursor and overlaps the text area, making it difficult to place the cursor or edit the text accurately.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>The UI suggestion feature is not adaptive for long text inputs. During mid-text editing, the popup overlaps the input area and interrupts normal editing behavior, resulting in poor usability.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">· </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Formatting (spaces / paragraph)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  Simple sentence</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">· </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (≥300 characters)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> rror handling / input validation</t>
+    </r>
+  </si>
+  <si>
+    <t>Neg_UI_0001</t>
   </si>
 </sst>
 </file>
@@ -9593,10 +9702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M173"/>
+  <dimension ref="A1:M177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="121" workbookViewId="0">
-      <selection activeCell="F134" sqref="F134:F137"/>
+    <sheetView tabSelected="1" topLeftCell="A170" zoomScale="121" workbookViewId="0">
+      <selection activeCell="A174" sqref="A174:A177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="49.95" customHeight="1"/>
@@ -12782,8 +12891,81 @@
         <v>590</v>
       </c>
     </row>
+    <row r="174" spans="1:9" ht="49.95" customHeight="1">
+      <c r="A174" s="25" t="s">
+        <v>633</v>
+      </c>
+      <c r="B174" s="26" t="s">
+        <v>625</v>
+      </c>
+      <c r="C174" s="26" t="s">
+        <v>524</v>
+      </c>
+      <c r="D174" s="25" t="s">
+        <v>626</v>
+      </c>
+      <c r="E174" s="25"/>
+      <c r="F174" s="25" t="s">
+        <v>627</v>
+      </c>
+      <c r="G174" s="26" t="s">
+        <v>341</v>
+      </c>
+      <c r="H174" s="35" t="s">
+        <v>628</v>
+      </c>
+      <c r="I174" s="2" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" ht="49.95" customHeight="1">
+      <c r="A175" s="25"/>
+      <c r="B175" s="26"/>
+      <c r="C175" s="26"/>
+      <c r="D175" s="25"/>
+      <c r="E175" s="25"/>
+      <c r="F175" s="25"/>
+      <c r="G175" s="26"/>
+      <c r="H175" s="24"/>
+      <c r="I175" s="2" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" ht="49.95" customHeight="1">
+      <c r="A176" s="25"/>
+      <c r="B176" s="26"/>
+      <c r="C176" s="26"/>
+      <c r="D176" s="25"/>
+      <c r="E176" s="25"/>
+      <c r="F176" s="25"/>
+      <c r="G176" s="26"/>
+      <c r="H176" s="24"/>
+      <c r="I176" s="2" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" ht="49.95" customHeight="1">
+      <c r="A177" s="25"/>
+      <c r="B177" s="26"/>
+      <c r="C177" s="26"/>
+      <c r="D177" s="25"/>
+      <c r="E177" s="25"/>
+      <c r="F177" s="25"/>
+      <c r="G177" s="26"/>
+      <c r="H177" s="24"/>
+      <c r="I177" s="2" t="s">
+        <v>632</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="298">
+  <mergeCells count="305">
+    <mergeCell ref="A174:A177"/>
+    <mergeCell ref="B174:B177"/>
+    <mergeCell ref="C174:C177"/>
+    <mergeCell ref="D174:D177"/>
+    <mergeCell ref="E174:E177"/>
+    <mergeCell ref="F174:F177"/>
+    <mergeCell ref="G174:G177"/>
     <mergeCell ref="A166:A169"/>
     <mergeCell ref="B166:B169"/>
     <mergeCell ref="C166:C169"/>
